--- a/PetWebShop-pitanja.xlsx
+++ b/PetWebShop-pitanja.xlsx
@@ -285,12 +285,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -320,11 +326,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,19 +636,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G2" t="s">
@@ -649,19 +656,19 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G3" t="s">
@@ -669,19 +676,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -708,13 +715,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -739,24 +746,24 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
     </row>

--- a/PetWebShop-pitanja.xlsx
+++ b/PetWebShop-pitanja.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t>Kategorija</t>
   </si>
@@ -262,6 +262,33 @@
   </si>
   <si>
     <t>I dodati hover boja</t>
+  </si>
+  <si>
+    <t>Staiti belu pozadinu kod footera gde je logo i banaka</t>
+  </si>
+  <si>
+    <t>Staviti boldovan text u footer-u</t>
+  </si>
+  <si>
+    <t>Skinuti kategrojie u footeru</t>
+  </si>
+  <si>
+    <t>gde je crvena pozaddina da bude boldovan text</t>
+  </si>
+  <si>
+    <t>Akcija ikonice da budu malo vece</t>
+  </si>
+  <si>
+    <t>Boldovan text u fixed navigation</t>
+  </si>
+  <si>
+    <t>dodaj ubaci u korpu za proizvode na pocetnoj stranici kao "+"  "-"</t>
+  </si>
+  <si>
+    <t>Pratiti pozicije avatara</t>
+  </si>
+  <si>
+    <t>Nove stvari</t>
   </si>
 </sst>
 </file>
@@ -612,15 +639,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.42578125" customWidth="1"/>
     <col min="2" max="2" width="80" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -1063,6 +1090,51 @@
         <v>76</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PetWebShop-pitanja.xlsx
+++ b/PetWebShop-pitanja.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1126,7 @@
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
     </row>
